--- a/Outros/Teste latencia arduino.xlsx
+++ b/Outros/Teste latencia arduino.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8355"/>
+    <workbookView windowWidth="19920" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>0m</t>
   </si>
@@ -25,7 +25,10 @@
     <t>8m</t>
   </si>
   <si>
-    <t>limiar aceitavel</t>
+    <t>Obstáculo</t>
+  </si>
+  <si>
+    <t>Limiar aceitavel</t>
   </si>
 </sst>
 </file>
@@ -33,8 +36,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -54,8 +57,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,9 +72,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,9 +94,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,7 +103,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,6 +133,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -123,23 +148,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,31 +171,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,19 +203,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,13 +227,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +245,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,25 +281,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +311,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,85 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,13 +397,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -410,21 +417,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,15 +439,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -463,16 +446,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +474,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,19 +502,19 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,124 +523,124 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1785,7 +1788,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>limiar aceitavel</c:v>
+                  <c:v>Obstáculo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1812,6 +1815,346 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Limiar aceitavel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2126,32 +2469,19 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="478341052"/>
-        <c:axId val="261312952"/>
+        <c:axId val="518985162"/>
+        <c:axId val="902229772"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478341052"/>
+        <c:axId val="518985162"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -2171,7 +2501,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261312952"/>
+        <c:crossAx val="902229772"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2179,7 +2509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261312952"/>
+        <c:axId val="902229772"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2559,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478341052"/>
+        <c:crossAx val="518985162"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2300,1649 +2630,13 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>Latência de transmissão de dados</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0m</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$A$2:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5m</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$B$2:$B$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8m</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$C$2:$C$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>limiar aceitavel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$D$2:$D$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="63044775"/>
-        <c:axId val="984689528"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="63044775"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="984689528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="984689528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="63044775"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="pt-BR"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4498,579 +3192,33 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2565400" y="14528800"/>
+        <a:off x="4238625" y="485775"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="3498850" y="158750"/>
-        <a:ext cx="4572000" cy="2743200"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5337,15 +3485,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="4" width="12.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="14.4285714285714" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5358,8 +3510,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>46</v>
       </c>
@@ -5370,10 +3525,13 @@
         <v>99</v>
       </c>
       <c r="D2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>42</v>
       </c>
@@ -5384,10 +3542,13 @@
         <v>149</v>
       </c>
       <c r="D3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>42</v>
       </c>
@@ -5398,10 +3559,13 @@
         <v>299</v>
       </c>
       <c r="D4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>41</v>
       </c>
@@ -5412,10 +3576,13 @@
         <v>373</v>
       </c>
       <c r="D5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>42</v>
       </c>
@@ -5426,10 +3593,13 @@
         <v>116</v>
       </c>
       <c r="D6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>41</v>
       </c>
@@ -5440,10 +3610,13 @@
         <v>69</v>
       </c>
       <c r="D7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>43</v>
       </c>
@@ -5454,10 +3627,13 @@
         <v>47</v>
       </c>
       <c r="D8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>42</v>
       </c>
@@ -5468,10 +3644,13 @@
         <v>118</v>
       </c>
       <c r="D9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>40</v>
       </c>
@@ -5482,10 +3661,13 @@
         <v>69</v>
       </c>
       <c r="D10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>45</v>
       </c>
@@ -5496,10 +3678,13 @@
         <v>86</v>
       </c>
       <c r="D11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>29</v>
       </c>
@@ -5510,10 +3695,13 @@
         <v>62</v>
       </c>
       <c r="D12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>25</v>
       </c>
@@ -5524,10 +3712,13 @@
         <v>90</v>
       </c>
       <c r="D13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>30</v>
       </c>
@@ -5538,10 +3729,13 @@
         <v>89</v>
       </c>
       <c r="D14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>25</v>
       </c>
@@ -5552,10 +3746,13 @@
         <v>190</v>
       </c>
       <c r="D15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>22</v>
       </c>
@@ -5566,10 +3763,13 @@
         <v>184</v>
       </c>
       <c r="D16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>30</v>
       </c>
@@ -5580,10 +3780,13 @@
         <v>201</v>
       </c>
       <c r="D17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>25</v>
       </c>
@@ -5594,10 +3797,13 @@
         <v>165</v>
       </c>
       <c r="D18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>25</v>
       </c>
@@ -5608,10 +3814,13 @@
         <v>271</v>
       </c>
       <c r="D19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>27</v>
       </c>
@@ -5622,10 +3831,13 @@
         <v>139</v>
       </c>
       <c r="D20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>24</v>
       </c>
@@ -5636,10 +3848,13 @@
         <v>97</v>
       </c>
       <c r="D21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>22</v>
       </c>
@@ -5650,10 +3865,13 @@
         <v>95</v>
       </c>
       <c r="D22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>31</v>
       </c>
@@ -5664,10 +3882,13 @@
         <v>98</v>
       </c>
       <c r="D23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>24</v>
       </c>
@@ -5678,10 +3899,13 @@
         <v>119</v>
       </c>
       <c r="D24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5692,10 +3916,13 @@
         <v>95</v>
       </c>
       <c r="D25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>30</v>
       </c>
@@ -5706,10 +3933,13 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>23</v>
       </c>
@@ -5720,10 +3950,13 @@
         <v>117</v>
       </c>
       <c r="D27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>23</v>
       </c>
@@ -5734,10 +3967,13 @@
         <v>109</v>
       </c>
       <c r="D28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>22</v>
       </c>
@@ -5748,10 +3984,13 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>23</v>
       </c>
@@ -5762,10 +4001,13 @@
         <v>102</v>
       </c>
       <c r="D30">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>48</v>
       </c>
@@ -5776,10 +4018,13 @@
         <v>100</v>
       </c>
       <c r="D31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>37</v>
       </c>
@@ -5790,10 +4035,13 @@
         <v>93</v>
       </c>
       <c r="D32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>51</v>
       </c>
@@ -5804,10 +4052,13 @@
         <v>91</v>
       </c>
       <c r="D33">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>42</v>
       </c>
@@ -5818,10 +4069,13 @@
         <v>85</v>
       </c>
       <c r="D34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>42</v>
       </c>
@@ -5832,10 +4086,13 @@
         <v>110</v>
       </c>
       <c r="D35">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>42</v>
       </c>
@@ -5846,10 +4103,13 @@
         <v>124</v>
       </c>
       <c r="D36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>41</v>
       </c>
@@ -5860,10 +4120,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>44</v>
       </c>
@@ -5874,10 +4137,13 @@
         <v>111</v>
       </c>
       <c r="D38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5888,10 +4154,13 @@
         <v>97</v>
       </c>
       <c r="D39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>42</v>
       </c>
@@ -5902,10 +4171,13 @@
         <v>88</v>
       </c>
       <c r="D40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>44</v>
       </c>
@@ -5916,10 +4188,13 @@
         <v>101</v>
       </c>
       <c r="D41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>37</v>
       </c>
@@ -5930,10 +4205,13 @@
         <v>70</v>
       </c>
       <c r="D42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>39</v>
       </c>
@@ -5944,10 +4222,13 @@
         <v>96</v>
       </c>
       <c r="D43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5958,10 +4239,13 @@
         <v>120</v>
       </c>
       <c r="D44">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5972,10 +4256,13 @@
         <v>169</v>
       </c>
       <c r="D45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>41</v>
       </c>
@@ -5986,10 +4273,13 @@
         <v>118</v>
       </c>
       <c r="D46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="E46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>42</v>
       </c>
@@ -6000,10 +4290,13 @@
         <v>169</v>
       </c>
       <c r="D47">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>39</v>
       </c>
@@ -6014,10 +4307,13 @@
         <v>60</v>
       </c>
       <c r="D48">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>44</v>
       </c>
@@ -6028,10 +4324,13 @@
         <v>42</v>
       </c>
       <c r="D49">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>46</v>
       </c>
@@ -6042,10 +4341,13 @@
         <v>73</v>
       </c>
       <c r="D50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>41</v>
       </c>
@@ -6056,10 +4358,13 @@
         <v>82</v>
       </c>
       <c r="D51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>42</v>
       </c>
@@ -6070,10 +4375,13 @@
         <v>88</v>
       </c>
       <c r="D52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>42</v>
       </c>
@@ -6084,10 +4392,13 @@
         <v>86</v>
       </c>
       <c r="D53">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>38</v>
       </c>
@@ -6098,10 +4409,13 @@
         <v>99</v>
       </c>
       <c r="D54">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>38</v>
       </c>
@@ -6112,10 +4426,13 @@
         <v>125</v>
       </c>
       <c r="D55">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>41</v>
       </c>
@@ -6126,10 +4443,13 @@
         <v>120</v>
       </c>
       <c r="D56">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>42</v>
       </c>
@@ -6140,10 +4460,13 @@
         <v>142</v>
       </c>
       <c r="D57">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>40</v>
       </c>
@@ -6154,10 +4477,13 @@
         <v>98</v>
       </c>
       <c r="D58">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>42</v>
       </c>
@@ -6168,10 +4494,13 @@
         <v>102</v>
       </c>
       <c r="D59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>37</v>
       </c>
@@ -6184,8 +4513,11 @@
       <c r="D60">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>39</v>
       </c>
@@ -6196,10 +4528,13 @@
         <v>129</v>
       </c>
       <c r="D61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="E61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>35</v>
       </c>
@@ -6210,10 +4545,13 @@
         <v>88</v>
       </c>
       <c r="D62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>44</v>
       </c>
@@ -6224,10 +4562,13 @@
         <v>125</v>
       </c>
       <c r="D63">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="E63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>42</v>
       </c>
@@ -6238,10 +4579,13 @@
         <v>133</v>
       </c>
       <c r="D64">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="E64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>49</v>
       </c>
@@ -6252,10 +4596,13 @@
         <v>123</v>
       </c>
       <c r="D65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>46</v>
       </c>
@@ -6268,8 +4615,11 @@
       <c r="D66">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>47</v>
       </c>
@@ -6280,10 +4630,13 @@
         <v>105</v>
       </c>
       <c r="D67">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>41</v>
       </c>
@@ -6294,10 +4647,13 @@
         <v>181</v>
       </c>
       <c r="D68">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>41</v>
       </c>
@@ -6308,10 +4664,13 @@
         <v>75</v>
       </c>
       <c r="D69">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>44</v>
       </c>
@@ -6322,10 +4681,13 @@
         <v>111</v>
       </c>
       <c r="D70">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>44</v>
       </c>
@@ -6336,10 +4698,13 @@
         <v>108</v>
       </c>
       <c r="D71">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>42</v>
       </c>
@@ -6350,10 +4715,13 @@
         <v>102</v>
       </c>
       <c r="D72">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="E72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>44</v>
       </c>
@@ -6364,10 +4732,13 @@
         <v>101</v>
       </c>
       <c r="D73">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>41</v>
       </c>
@@ -6378,10 +4749,13 @@
         <v>114</v>
       </c>
       <c r="D74">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>41</v>
       </c>
@@ -6392,10 +4766,13 @@
         <v>94</v>
       </c>
       <c r="D75">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>42</v>
       </c>
@@ -6406,10 +4783,13 @@
         <v>133</v>
       </c>
       <c r="D76">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>57</v>
       </c>
@@ -6420,10 +4800,13 @@
         <v>101</v>
       </c>
       <c r="D77">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>57</v>
       </c>
@@ -6434,10 +4817,13 @@
         <v>109</v>
       </c>
       <c r="D78">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>45</v>
       </c>
@@ -6448,10 +4834,13 @@
         <v>93</v>
       </c>
       <c r="D79">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>41</v>
       </c>
@@ -6462,10 +4851,13 @@
         <v>114</v>
       </c>
       <c r="D80">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>44</v>
       </c>
@@ -6476,10 +4868,13 @@
         <v>99</v>
       </c>
       <c r="D81">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>41</v>
       </c>
@@ -6490,10 +4885,13 @@
         <v>105</v>
       </c>
       <c r="D82">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>45</v>
       </c>
@@ -6504,10 +4902,13 @@
         <v>131</v>
       </c>
       <c r="D83">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>39</v>
       </c>
@@ -6518,10 +4919,13 @@
         <v>74</v>
       </c>
       <c r="D84">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="E84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>45</v>
       </c>
@@ -6532,10 +4936,13 @@
         <v>107</v>
       </c>
       <c r="D85">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="E85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>46</v>
       </c>
@@ -6546,10 +4953,13 @@
         <v>93</v>
       </c>
       <c r="D86">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>43</v>
       </c>
@@ -6560,10 +4970,13 @@
         <v>77</v>
       </c>
       <c r="D87">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>42</v>
       </c>
@@ -6574,10 +4987,13 @@
         <v>114</v>
       </c>
       <c r="D88">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>44</v>
       </c>
@@ -6588,10 +5004,13 @@
         <v>101</v>
       </c>
       <c r="D89">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>45</v>
       </c>
@@ -6602,10 +5021,13 @@
         <v>113</v>
       </c>
       <c r="D90">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>41</v>
       </c>
@@ -6616,10 +5038,13 @@
         <v>130</v>
       </c>
       <c r="D91">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="E91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>41</v>
       </c>
@@ -6630,10 +5055,13 @@
         <v>90</v>
       </c>
       <c r="D92">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="E92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>41</v>
       </c>
@@ -6644,10 +5072,13 @@
         <v>93</v>
       </c>
       <c r="D93">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>46</v>
       </c>
@@ -6658,10 +5089,13 @@
         <v>100</v>
       </c>
       <c r="D94">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>43</v>
       </c>
@@ -6672,10 +5106,13 @@
         <v>140</v>
       </c>
       <c r="D95">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>45</v>
       </c>
@@ -6686,10 +5123,13 @@
         <v>108</v>
       </c>
       <c r="D96">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>46</v>
       </c>
@@ -6700,10 +5140,13 @@
         <v>102</v>
       </c>
       <c r="D97">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>40</v>
       </c>
@@ -6714,10 +5157,13 @@
         <v>114</v>
       </c>
       <c r="D98">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>44</v>
       </c>
@@ -6728,10 +5174,13 @@
         <v>87</v>
       </c>
       <c r="D99">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>40</v>
       </c>
@@ -6742,10 +5191,13 @@
         <v>126</v>
       </c>
       <c r="D100">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>41</v>
       </c>
@@ -6756,7 +5208,28 @@
         <v>95</v>
       </c>
       <c r="D101">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="E101">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <f>AVERAGE(A2:A101)</f>
+        <v>39.39</v>
+      </c>
+      <c r="B102">
+        <f>AVERAGE(B2:B101)</f>
+        <v>36.87</v>
+      </c>
+      <c r="C102">
+        <f>AVERAGE(C2:C101)</f>
+        <v>113.56</v>
+      </c>
+      <c r="D102">
+        <f>AVERAGE(D2:D101)</f>
+        <v>44.5</v>
       </c>
     </row>
   </sheetData>

--- a/Outros/Teste latencia arduino.xlsx
+++ b/Outros/Teste latencia arduino.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="8085"/>
+    <workbookView windowWidth="16545" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>0m</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>Limiar aceitavel</t>
+  </si>
+  <si>
+    <t>Varicao 0</t>
+  </si>
+  <si>
+    <t>VAricao 5m</t>
+  </si>
+  <si>
+    <t>VAricao 8m</t>
+  </si>
+  <si>
+    <t>VAriacao obstaculo</t>
   </si>
 </sst>
 </file>
@@ -51,6 +63,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -59,21 +78,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,15 +99,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -118,14 +116,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,18 +138,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,6 +156,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +193,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -203,7 +215,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,13 +323,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,145 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,17 +409,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -417,6 +425,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,6 +455,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,32 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -505,142 +517,142 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -724,6 +736,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Latência de transmissão de dados Bluetooth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -733,25 +769,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3196,16 +3213,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3213,8 +3230,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4238625" y="485775"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="7848600" y="333375"/>
+        <a:ext cx="5610225" cy="3362325"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3485,19 +3502,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="4" width="12.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="14.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="11.7142857142857"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3513,8 +3531,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>46</v>
       </c>
@@ -3530,8 +3560,17 @@
       <c r="E2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>42</v>
       </c>
@@ -3547,8 +3586,24 @@
       <c r="E3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <f>ABS(A3-A2)</f>
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <f>ABS(B3-B2)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>ABS(C3-C2)</f>
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <f>ABS(D3-D2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>42</v>
       </c>
@@ -3564,8 +3619,24 @@
       <c r="E4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <f t="shared" ref="G4:G35" si="0">ABS(A4-A3)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H35" si="1">ABS(B4-B3)</f>
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I35" si="2">ABS(C4-C3)</f>
+        <v>150</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J35" si="3">ABS(D4-D3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>41</v>
       </c>
@@ -3581,8 +3652,24 @@
       <c r="E5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>42</v>
       </c>
@@ -3598,8 +3685,24 @@
       <c r="E6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>41</v>
       </c>
@@ -3615,8 +3718,24 @@
       <c r="E7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>43</v>
       </c>
@@ -3632,8 +3751,24 @@
       <c r="E8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>42</v>
       </c>
@@ -3649,8 +3784,24 @@
       <c r="E9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>40</v>
       </c>
@@ -3666,8 +3817,24 @@
       <c r="E10">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>45</v>
       </c>
@@ -3683,8 +3850,24 @@
       <c r="E11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>29</v>
       </c>
@@ -3700,8 +3883,24 @@
       <c r="E12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>25</v>
       </c>
@@ -3717,8 +3916,24 @@
       <c r="E13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>30</v>
       </c>
@@ -3734,8 +3949,24 @@
       <c r="E14">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>25</v>
       </c>
@@ -3751,8 +3982,24 @@
       <c r="E15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>22</v>
       </c>
@@ -3768,8 +4015,24 @@
       <c r="E16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>30</v>
       </c>
@@ -3785,8 +4048,24 @@
       <c r="E17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>25</v>
       </c>
@@ -3802,8 +4081,24 @@
       <c r="E18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>25</v>
       </c>
@@ -3819,8 +4114,24 @@
       <c r="E19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>27</v>
       </c>
@@ -3836,8 +4147,24 @@
       <c r="E20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>24</v>
       </c>
@@ -3853,8 +4180,24 @@
       <c r="E21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3870,8 +4213,24 @@
       <c r="E22">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>31</v>
       </c>
@@ -3887,8 +4246,24 @@
       <c r="E23">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3904,8 +4279,24 @@
       <c r="E24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3921,8 +4312,24 @@
       <c r="E25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>30</v>
       </c>
@@ -3938,8 +4345,24 @@
       <c r="E26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>23</v>
       </c>
@@ -3955,8 +4378,24 @@
       <c r="E27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>23</v>
       </c>
@@ -3972,8 +4411,24 @@
       <c r="E28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>22</v>
       </c>
@@ -3989,8 +4444,24 @@
       <c r="E29">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>23</v>
       </c>
@@ -4006,8 +4477,24 @@
       <c r="E30">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>48</v>
       </c>
@@ -4023,8 +4510,24 @@
       <c r="E31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>37</v>
       </c>
@@ -4040,8 +4543,24 @@
       <c r="E32">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>51</v>
       </c>
@@ -4057,8 +4576,24 @@
       <c r="E33">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>42</v>
       </c>
@@ -4074,8 +4609,24 @@
       <c r="E34">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>42</v>
       </c>
@@ -4091,8 +4642,24 @@
       <c r="E35">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>42</v>
       </c>
@@ -4108,8 +4675,24 @@
       <c r="E36">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <f t="shared" ref="G36:G67" si="4">ABS(A36-A35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H67" si="5">ABS(B36-B35)</f>
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I67" si="6">ABS(C36-C35)</f>
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:J67" si="7">ABS(D36-D35)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>41</v>
       </c>
@@ -4125,8 +4708,24 @@
       <c r="E37">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>44</v>
       </c>
@@ -4142,8 +4741,24 @@
       <c r="E38">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4159,8 +4774,24 @@
       <c r="E39">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>42</v>
       </c>
@@ -4176,8 +4807,24 @@
       <c r="E40">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>44</v>
       </c>
@@ -4193,8 +4840,24 @@
       <c r="E41">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>37</v>
       </c>
@@ -4210,8 +4873,24 @@
       <c r="E42">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>39</v>
       </c>
@@ -4227,8 +4906,24 @@
       <c r="E43">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4244,8 +4939,24 @@
       <c r="E44">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4261,8 +4972,24 @@
       <c r="E45">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>41</v>
       </c>
@@ -4278,8 +5005,24 @@
       <c r="E46">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>42</v>
       </c>
@@ -4295,8 +5038,24 @@
       <c r="E47">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>39</v>
       </c>
@@ -4312,8 +5071,24 @@
       <c r="E48">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>109</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>44</v>
       </c>
@@ -4329,8 +5104,24 @@
       <c r="E49">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>46</v>
       </c>
@@ -4346,8 +5137,24 @@
       <c r="E50">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>41</v>
       </c>
@@ -4363,8 +5170,24 @@
       <c r="E51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>42</v>
       </c>
@@ -4380,8 +5203,24 @@
       <c r="E52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>42</v>
       </c>
@@ -4397,8 +5236,24 @@
       <c r="E53">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>38</v>
       </c>
@@ -4414,8 +5269,24 @@
       <c r="E54">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>38</v>
       </c>
@@ -4431,8 +5302,24 @@
       <c r="E55">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>41</v>
       </c>
@@ -4448,8 +5335,24 @@
       <c r="E56">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>42</v>
       </c>
@@ -4465,8 +5368,24 @@
       <c r="E57">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>40</v>
       </c>
@@ -4482,8 +5401,24 @@
       <c r="E58">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>42</v>
       </c>
@@ -4499,8 +5434,24 @@
       <c r="E59">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>37</v>
       </c>
@@ -4516,8 +5467,24 @@
       <c r="E60">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>39</v>
       </c>
@@ -4533,8 +5500,24 @@
       <c r="E61">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>35</v>
       </c>
@@ -4550,8 +5533,24 @@
       <c r="E62">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>44</v>
       </c>
@@ -4567,8 +5566,24 @@
       <c r="E63">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>42</v>
       </c>
@@ -4584,8 +5599,24 @@
       <c r="E64">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>49</v>
       </c>
@@ -4601,8 +5632,24 @@
       <c r="E65">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>46</v>
       </c>
@@ -4618,8 +5665,24 @@
       <c r="E66">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>47</v>
       </c>
@@ -4635,8 +5698,24 @@
       <c r="E67">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>41</v>
       </c>
@@ -4652,8 +5731,24 @@
       <c r="E68">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68">
+        <f t="shared" ref="G68:G99" si="8">ABS(A68-A67)</f>
+        <v>6</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H99" si="9">ABS(B68-B67)</f>
+        <v>9</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I99" si="10">ABS(C68-C67)</f>
+        <v>76</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J99" si="11">ABS(D68-D67)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>41</v>
       </c>
@@ -4669,8 +5764,24 @@
       <c r="E69">
         <v>50</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>44</v>
       </c>
@@ -4686,8 +5797,24 @@
       <c r="E70">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>44</v>
       </c>
@@ -4703,8 +5830,24 @@
       <c r="E71">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>42</v>
       </c>
@@ -4720,8 +5863,24 @@
       <c r="E72">
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>44</v>
       </c>
@@ -4737,8 +5896,24 @@
       <c r="E73">
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>41</v>
       </c>
@@ -4754,8 +5929,24 @@
       <c r="E74">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>41</v>
       </c>
@@ -4771,8 +5962,24 @@
       <c r="E75">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>42</v>
       </c>
@@ -4788,8 +5995,24 @@
       <c r="E76">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>57</v>
       </c>
@@ -4805,8 +6028,24 @@
       <c r="E77">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>57</v>
       </c>
@@ -4822,8 +6061,24 @@
       <c r="E78">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>45</v>
       </c>
@@ -4839,8 +6094,24 @@
       <c r="E79">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>41</v>
       </c>
@@ -4856,8 +6127,24 @@
       <c r="E80">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>44</v>
       </c>
@@ -4873,8 +6160,24 @@
       <c r="E81">
         <v>50</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>41</v>
       </c>
@@ -4890,8 +6193,24 @@
       <c r="E82">
         <v>50</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="G82">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>45</v>
       </c>
@@ -4907,8 +6226,24 @@
       <c r="E83">
         <v>50</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="G83">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>39</v>
       </c>
@@ -4924,8 +6259,24 @@
       <c r="E84">
         <v>50</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>45</v>
       </c>
@@ -4941,8 +6292,24 @@
       <c r="E85">
         <v>50</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="G85">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>46</v>
       </c>
@@ -4958,8 +6325,24 @@
       <c r="E86">
         <v>50</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>43</v>
       </c>
@@ -4975,8 +6358,24 @@
       <c r="E87">
         <v>50</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>42</v>
       </c>
@@ -4992,8 +6391,24 @@
       <c r="E88">
         <v>50</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>44</v>
       </c>
@@ -5009,8 +6424,24 @@
       <c r="E89">
         <v>50</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="G89">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>45</v>
       </c>
@@ -5026,8 +6457,24 @@
       <c r="E90">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>41</v>
       </c>
@@ -5043,8 +6490,24 @@
       <c r="E91">
         <v>50</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="G91">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>41</v>
       </c>
@@ -5060,8 +6523,24 @@
       <c r="E92">
         <v>50</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="G92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>41</v>
       </c>
@@ -5077,8 +6556,24 @@
       <c r="E93">
         <v>50</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="G93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>46</v>
       </c>
@@ -5094,8 +6589,24 @@
       <c r="E94">
         <v>50</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="G94">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>43</v>
       </c>
@@ -5111,8 +6622,24 @@
       <c r="E95">
         <v>50</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>45</v>
       </c>
@@ -5128,8 +6655,24 @@
       <c r="E96">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="G96">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>46</v>
       </c>
@@ -5145,8 +6688,24 @@
       <c r="E97">
         <v>50</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>40</v>
       </c>
@@ -5162,8 +6721,24 @@
       <c r="E98">
         <v>50</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="G98">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>44</v>
       </c>
@@ -5179,8 +6754,24 @@
       <c r="E99">
         <v>50</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>40</v>
       </c>
@@ -5196,8 +6787,24 @@
       <c r="E100">
         <v>50</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100">
+        <f>ABS(A100-A99)</f>
+        <v>4</v>
+      </c>
+      <c r="H100">
+        <f>ABS(B100-B99)</f>
+        <v>10</v>
+      </c>
+      <c r="I100">
+        <f>ABS(C100-C99)</f>
+        <v>39</v>
+      </c>
+      <c r="J100">
+        <f>ABS(D100-D99)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>41</v>
       </c>
@@ -5213,8 +6820,24 @@
       <c r="E101">
         <v>50</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="G101">
+        <f>ABS(A101-A100)</f>
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <f>ABS(B101-B100)</f>
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <f>ABS(C101-C100)</f>
+        <v>31</v>
+      </c>
+      <c r="J101">
+        <f>ABS(D101-D100)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102">
         <f>AVERAGE(A2:A101)</f>
         <v>39.39</v>
@@ -5230,6 +6853,22 @@
       <c r="D102">
         <f>AVERAGE(D2:D101)</f>
         <v>44.5</v>
+      </c>
+      <c r="G102">
+        <f>AVERAGE(G2:G101)</f>
+        <v>3.67</v>
+      </c>
+      <c r="H102">
+        <f>AVERAGE(H2:H101)</f>
+        <v>6.85</v>
+      </c>
+      <c r="I102">
+        <f>AVERAGE(I2:I101)</f>
+        <v>30.58</v>
+      </c>
+      <c r="J102">
+        <f>AVERAGE(J3:J101)</f>
+        <v>7.03030303030303</v>
       </c>
     </row>
   </sheetData>
